--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B418834-6175-4FC9-A798-D52F7268DDF1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Role Name</t>
   </si>
@@ -42,16 +43,29 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>Akshupdated</t>
-  </si>
-  <si>
-    <t>Akshadmin</t>
+    <t>Palakadmin</t>
+  </si>
+  <si>
+    <t>Palakupdated</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT
+  a.RoleName as "Role Name"
+  ,b. LAST_CHANGED_BY AS "Last Changed By"
+  , Substring(b.LAST_CHANGED_ON,11,18) AS "Last Changed On"
+FROM  [Product_OCM].[dbo].[CMM_ROLE_PAGES] b inner join CMM_ROLES a ON b.ROLEID=a.ROLEID order by [Role Name] ;</t>
+  </si>
+  <si>
+    <t>Palak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,10 +102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -153,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -365,17 +385,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -391,7 +411,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -401,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +452,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -439,15 +464,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +492,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Role Name</t>
   </si>
@@ -34,19 +33,7 @@
     <t>Modify Reason</t>
   </si>
   <si>
-    <t>Rolename Modified</t>
-  </si>
-  <si>
     <t>Delete Reason</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Palakadmin</t>
-  </si>
-  <si>
-    <t>Palakupdated</t>
   </si>
   <si>
     <t>Query</t>
@@ -60,6 +47,27 @@
   </si>
   <si>
     <t>Palak</t>
+  </si>
+  <si>
+    <t>ErrorMsg1</t>
+  </si>
+  <si>
+    <t>PalakAdmin</t>
+  </si>
+  <si>
+    <t>Enter Role Name</t>
+  </si>
+  <si>
+    <t>PalakAdmin Updated</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Empire</t>
   </si>
 </sst>
 </file>
@@ -385,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,19 +412,25 @@
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +444,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,13 +467,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -487,15 +501,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -518,12 +532,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Role Name</t>
   </si>
@@ -52,22 +52,19 @@
     <t>ErrorMsg1</t>
   </si>
   <si>
-    <t>PalakAdmin</t>
-  </si>
-  <si>
     <t>Enter Role Name</t>
   </si>
   <si>
-    <t>PalakAdmin Updated</t>
-  </si>
-  <si>
     <t>Modified</t>
   </si>
   <si>
     <t>deleted</t>
   </si>
   <si>
-    <t>Empire</t>
+    <t>SantoshAdmin</t>
+  </si>
+  <si>
+    <t>SantoshAdminUpdate</t>
   </si>
 </sst>
 </file>
@@ -110,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +416,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +438,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,14 +460,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -486,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,10 +500,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -521,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +530,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Role Name</t>
   </si>
@@ -64,7 +65,13 @@
     <t>SantoshAdmin</t>
   </si>
   <si>
-    <t>SantoshAdminUpdate</t>
+    <t>SantoshAdminUpdated</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>PalakAdmin</t>
   </si>
 </sst>
 </file>
@@ -387,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +431,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +482,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -481,7 +503,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="6090" yWindow="1500" windowWidth="14385" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,38 +40,38 @@
     <t>Query</t>
   </si>
   <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>ErrorMsg1</t>
+  </si>
+  <si>
+    <t>Enter Role Name</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>SantoshAdmin</t>
+  </si>
+  <si>
+    <t>SantoshAdminUpdated</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>PalakAdmin</t>
+  </si>
+  <si>
     <t>SELECT
   a.RoleName as "Role Name"
   ,b. LAST_CHANGED_BY AS "Last Changed By"
   , Substring(b.LAST_CHANGED_ON,11,18) AS "Last Changed On"
-FROM  [Product_OCM].[dbo].[CMM_ROLE_PAGES] b inner join CMM_ROLES a ON b.ROLEID=a.ROLEID order by [Role Name] ;</t>
-  </si>
-  <si>
-    <t>Palak</t>
-  </si>
-  <si>
-    <t>ErrorMsg1</t>
-  </si>
-  <si>
-    <t>Enter Role Name</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>SantoshAdmin</t>
-  </si>
-  <si>
-    <t>SantoshAdminUpdated</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>PalakAdmin</t>
+FROM  [dbo].[CMM_ROLE_PAGES] b inner join CMM_ROLES a ON b.ROLEID=a.ROLEID order by [Role Name] ;</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -418,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -473,23 +473,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -522,10 +522,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +538,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
+++ b/ocms/target/test-classes/TestData/RoleBasedAccessManagementData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4E314-B17B-4926-81DD-E8A2D43826D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1500" windowWidth="14385" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Role Name</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>deleted</t>
-  </si>
-  <si>
-    <t>SantoshAdmin</t>
-  </si>
-  <si>
-    <t>SantoshAdminUpdated</t>
   </si>
   <si>
     <t>Admin</t>
@@ -73,11 +67,14 @@
   , Substring(b.LAST_CHANGED_ON,11,18) AS "Last Changed On"
 FROM  [dbo].[CMM_ROLE_PAGES] b inner join CMM_ROLES a ON b.ROLEID=a.ROLEID order by [Role Name] ;</t>
   </si>
+  <si>
+    <t>AdminUpdated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,26 +391,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -429,14 +426,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -446,21 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,25 +468,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,20 +496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,9 +517,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -534,26 +531,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
